--- a/raporty/Raport ofert firmy Braspol_2025-09-14.xlsx
+++ b/raporty/Raport ofert firmy Braspol_2025-09-14.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>pomieszczenie_1</t>
+          <t>pomieszczenie przynalezne_1</t>
         </is>
       </c>
     </row>
